--- a/data/income_statement/2digits/size/14_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/14_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>14-Manufacture of wearing apparel</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>14-Manufacture of wearing apparel</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1115 +841,1260 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1090899.08357</v>
+        <v>1249734.77114</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1122305.14151</v>
+        <v>1273468.99947</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1152152.57517</v>
+        <v>1310324.66937</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1055404.06574</v>
+        <v>1208302.37177</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1037884.69023</v>
+        <v>1219554.81289</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1143266.91562</v>
+        <v>1356371.0966</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1086824.65998</v>
+        <v>1356648.03064</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1349122.35354</v>
+        <v>1678382.97276</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1353169.01031</v>
+        <v>1672391.61406</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3808547.20666</v>
+        <v>4371849.75125</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4043222.59264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4875597.03234</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6329348.832</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>883586.45355</v>
+        <v>1014617.5317</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>897840.5139500001</v>
+        <v>1024438.89626</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>965800.6139400001</v>
+        <v>1102688.8132</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>886573.17457</v>
+        <v>1014825.54478</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>844189.91094</v>
+        <v>995462.4216799999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>950664.42167</v>
+        <v>1134956.01966</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>893027.5617099999</v>
+        <v>1123044.60631</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1152393.58106</v>
+        <v>1435389.65632</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1179342.09785</v>
+        <v>1452853.59213</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3171769.56574</v>
+        <v>3653055.73843</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3307952.44108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4018757.75132</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5408622.112</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>193134.63391</v>
+        <v>213882.13594</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>207292.05935</v>
+        <v>222635.48582</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>166482.11416</v>
+        <v>181953.67857</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>153119.09743</v>
+        <v>169098.4933</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>177756.68281</v>
+        <v>202010.20935</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>180520.12073</v>
+        <v>198924.00824</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>175640.98793</v>
+        <v>202729.18456</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>181034.65023</v>
+        <v>211748.3828</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>160439.22429</v>
+        <v>189838.26361</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>585353.42165</v>
+        <v>640288.27374</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>677348.4703500001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>770427.9775400001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>825675.4790000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>14177.99611</v>
+        <v>21235.1035</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>17172.56821</v>
+        <v>26394.61739</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>19869.84707</v>
+        <v>25682.1776</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>15711.79374</v>
+        <v>24378.33369</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15938.09648</v>
+        <v>22082.18186</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>12082.37322</v>
+        <v>22491.0687</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>18156.11034</v>
+        <v>30874.23977</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>15694.12225</v>
+        <v>31244.93364</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>13387.68817</v>
+        <v>29699.75832</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>51424.21927</v>
+        <v>78505.73908</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>57921.68121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>86411.30348</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>95051.24099999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>19326.8316</v>
+        <v>24264.10737</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>15245.37193</v>
+        <v>18464.53601</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>15658.53061</v>
+        <v>19044.09183</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>10909.87384</v>
+        <v>19048.11763</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11026.95298</v>
+        <v>13243.25208</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>9630.49869</v>
+        <v>12413.42201</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>11196.05341</v>
+        <v>21872.5425</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>19510.32238</v>
+        <v>24289.54561</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>16924.49607</v>
+        <v>20527.25081</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>54976.81505</v>
+        <v>70371.40155</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>59199.10234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>71375.97123000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>717369.7879999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>15675.80764</v>
+        <v>20235.01384</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>12077.15755</v>
+        <v>15105.52131</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>13494.71143</v>
+        <v>16589.70587</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9487.259330000001</v>
+        <v>16901.31804</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9159.920759999999</v>
+        <v>11115.73555</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>8035.74986</v>
+        <v>10289.32362</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9565.299360000001</v>
+        <v>19482.48625</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>16774.78555</v>
+        <v>20782.50156</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>12619.35633</v>
+        <v>15557.39566</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>47880.90594</v>
+        <v>59373.50045</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>47272.11958000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>58321.77908</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>705021.029</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2404.46662</v>
+        <v>2570.02033</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2253.84603</v>
+        <v>2362.69738</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1567.38567</v>
+        <v>1815.87017</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>784.2692999999999</v>
+        <v>1259.04756</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>765.124</v>
+        <v>868.0019100000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>784.48215</v>
+        <v>867.06999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>816.80264</v>
+        <v>1358.22082</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1486.64811</v>
+        <v>2118.30833</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2935.86986</v>
+        <v>3003.09928</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3303.56604</v>
+        <v>6076.769179999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5104.909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5552.068060000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5468.482</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1246.55734</v>
+        <v>1459.0732</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>914.36835</v>
+        <v>996.31732</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>596.43351</v>
+        <v>638.5157899999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>638.3452100000001</v>
+        <v>887.75203</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1101.90822</v>
+        <v>1259.51462</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>810.2666800000001</v>
+        <v>1257.0284</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>813.95141</v>
+        <v>1031.83543</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1248.88872</v>
+        <v>1388.73572</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1369.26988</v>
+        <v>1966.75587</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3792.34307</v>
+        <v>4921.13192</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6822.07376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7502.12409</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6880.277</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1071572.25197</v>
+        <v>1225470.66377</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1107059.76958</v>
+        <v>1255004.46346</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1136494.04456</v>
+        <v>1291280.57754</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1044494.1919</v>
+        <v>1189254.25414</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1026857.73725</v>
+        <v>1206311.56081</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1133636.41693</v>
+        <v>1343957.67459</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1075628.60657</v>
+        <v>1334775.48814</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1329612.03116</v>
+        <v>1654093.42715</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1336244.51424</v>
+        <v>1651864.36325</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3753570.39161</v>
+        <v>4301478.3497</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3984023.4903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4804221.061109999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5611979.044</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>877233.93386</v>
+        <v>1002775.9987</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>904473.874</v>
+        <v>1022839.87722</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>933975.14035</v>
+        <v>1064398.75249</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>859295.19476</v>
+        <v>970616.5831700001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>851065.8625800001</v>
+        <v>994054.52326</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>943381.30262</v>
+        <v>1108457.69172</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>881340.49759</v>
+        <v>1083622.81773</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1104814.35089</v>
+        <v>1356179.94078</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1127751.29695</v>
+        <v>1367858.60155</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3156428.66431</v>
+        <v>3598423.2126</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3338608.7131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4000022.33894</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4753000.545</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>434488.07567</v>
+        <v>515461.83552</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>409861.64488</v>
+        <v>479110.19953</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>451492.74543</v>
+        <v>522242.20433</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>388095.8482000001</v>
+        <v>449292.95161</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>388995.81773</v>
+        <v>473825.10845</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>399573.23869</v>
+        <v>497499.19355</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>435581.186</v>
+        <v>558484.4628199999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>466493.42225</v>
+        <v>618502.04721</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>420265.8942</v>
+        <v>559622.0834</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1628055.78276</v>
+        <v>1871091.63609</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1706359.99736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2050854.30252</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2173032.277</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>341568.9143</v>
+        <v>378441.76953</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>372702.84262</v>
+        <v>409823.98602</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>371436.14388</v>
+        <v>421183.50577</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>349882.27809</v>
+        <v>389786.54083</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>366342.47491</v>
+        <v>412009.3553800001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>428784.37816</v>
+        <v>483020.8244099999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>335316.24487</v>
+        <v>397071.13875</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>502837.51066</v>
+        <v>574638.46257</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>569227.08863</v>
+        <v>639003.36509</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1237842.48751</v>
+        <v>1401169.45123</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1319324.11449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1552765.17515</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2070829.265</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>95773.23183999999</v>
+        <v>102971.62101</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>119979.07385</v>
+        <v>129681.15296</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>109221.48985</v>
+        <v>117209.80721</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>114041.75755</v>
+        <v>122771.26095</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>91998.622</v>
+        <v>103616.04162</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>106361.7628</v>
+        <v>117230.40963</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>107742.43583</v>
+        <v>122656.99668</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>133181.37613</v>
+        <v>158910.47943</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>133908.08031</v>
+        <v>159750.2189</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>278391.98422</v>
+        <v>309050.65349</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>299003.65154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>377011.2659</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>493126.836</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>5403.712050000001</v>
+        <v>5900.772640000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1930.31265</v>
+        <v>4224.53871</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1824.76119</v>
+        <v>3763.23518</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>7275.31092</v>
+        <v>8765.829780000002</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3728.94794</v>
+        <v>4604.01781</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>8661.92297</v>
+        <v>10707.26413</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2700.63089</v>
+        <v>5410.21948</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2302.04185</v>
+        <v>4128.95157</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4350.233810000001</v>
+        <v>9482.934160000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>12138.40982</v>
+        <v>17111.47179</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>13920.94971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19391.59537</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>16012.167</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>194338.31811</v>
+        <v>222694.66507</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>202585.89558</v>
+        <v>232164.58624</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>202518.90421</v>
+        <v>226881.82505</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>185198.99714</v>
+        <v>218637.67097</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>175791.87467</v>
+        <v>212257.03755</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>190255.11431</v>
+        <v>235499.98287</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>194288.10898</v>
+        <v>251152.67041</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>224797.68027</v>
+        <v>297913.48637</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>208493.21729</v>
+        <v>284005.7617</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>597141.7272999999</v>
+        <v>703055.1371000001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>645414.7772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>804198.7221700001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>858978.499</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>183996.64557</v>
+        <v>221237.35301</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>185640.51612</v>
+        <v>232083.39947</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>189457.1658</v>
+        <v>234314.41994</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>181732.35669</v>
+        <v>222356.85378</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>175345.30777</v>
+        <v>219577.03776</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>187203.57963</v>
+        <v>247529.70187</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>192744.96583</v>
+        <v>266113.2814099999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>225419.34226</v>
+        <v>318014.19891</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>213306.08936</v>
+        <v>321855.4419499999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>490564.263</v>
+        <v>609605.58417</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>549158.9986599999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>727098.86737</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>760174.611</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>478.3134</v>
+        <v>480.62289</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>469.7607</v>
+        <v>671.00726</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>350.1221</v>
+        <v>352.6025</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>143.43699</v>
+        <v>227.07174</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>253.60736</v>
+        <v>406.65061</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1197.41498</v>
+        <v>1197.54912</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>267.8849</v>
+        <v>342.11524</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4.397069999999999</v>
+        <v>108.96609</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>374.2102</v>
+        <v>901.0403400000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>942.33277</v>
+        <v>992.5734199999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1337.25772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1414.34783</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1445.685</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>30968.88529</v>
+        <v>37531.94641</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>33272.6255</v>
+        <v>40754.77472</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>36074.12733</v>
+        <v>44155.1048</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>33234.41238</v>
+        <v>40034.72282</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>38071.8569</v>
+        <v>46165.45386</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>40407.72223000001</v>
+        <v>51717.60573999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>33521.62962</v>
+        <v>47659.71745</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>40999.39872</v>
+        <v>59075.16315000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>39861.7318</v>
+        <v>60468.28976</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>101972.07072</v>
+        <v>120159.42184</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>122382.88654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>151425.98099</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>154207.843</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>152549.44688</v>
+        <v>183224.78371</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>151898.12992</v>
+        <v>190657.61749</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>153032.91637</v>
+        <v>189806.71264</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>148354.50732</v>
+        <v>182095.05922</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>137019.84351</v>
+        <v>173004.93329</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>145598.44242</v>
+        <v>194614.54701</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>158955.45131</v>
+        <v>218111.44872</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>184415.54647</v>
+        <v>258830.06967</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>173070.14736</v>
+        <v>260486.11185</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>387649.85951</v>
+        <v>488453.58891</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>425438.8544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>574258.5385500001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>604521.083</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>10341.67254</v>
+        <v>1457.31206</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>16945.37946</v>
+        <v>81.18677000000002</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>13061.73841</v>
+        <v>-7432.594889999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>3466.64045</v>
+        <v>-3719.18281</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>446.5669000000001</v>
+        <v>-7320.000209999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3051.53468</v>
+        <v>-12029.719</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1543.14315</v>
+        <v>-14960.611</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-621.6619900000002</v>
+        <v>-20100.71254</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-4812.872069999999</v>
+        <v>-37849.68025</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>106577.4643</v>
+        <v>93449.55293000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>96255.77854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>77099.8548</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>98803.88800000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>10776.45222</v>
+        <v>49699.61436</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>10971.88423</v>
+        <v>59699.42797</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>13244.11237</v>
+        <v>59739.4357</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7464.06357</v>
+        <v>27003.92344</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9384.55395</v>
+        <v>46448.06764</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6161.68193</v>
+        <v>42605.22133</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11039.41438</v>
+        <v>60592.05103</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>11545.55402</v>
+        <v>63423.05466</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>10750.36827</v>
+        <v>86335.51658</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>73590.23534</v>
+        <v>340886.13254</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>41970.01888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>218044.11678</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>240544.566</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0.24366</v>
+        <v>1285.34302</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>1472.20324</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>41.66519</v>
+        <v>758.85669</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>664.56868</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>55.48000999999999</v>
+        <v>381.58449</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>21.61569</v>
+        <v>96.10505999999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>61.92796</v>
+        <v>4014.84554</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>9.509499999999999</v>
+        <v>2830.33188</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>240.32568</v>
+        <v>23163.80599</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>424.94988</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>14872.0977</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>6077.454</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2.54144</v>
+        <v>166.73024</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>17.18489</v>
+        <v>170.70102</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>5.706560000000001</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>15.00009</v>
+        <v>388.55723</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>39.21414</v>
+        <v>119.92114</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>72.78309</v>
+        <v>81.96724</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>5.73705</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0.7414400000000001</v>
+        <v>17.68202</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>34.94130999999999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>42.73015</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>966.97182</v>
+        <v>6526.38134</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>651.52806</v>
+        <v>4389.58773</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>897.59437</v>
+        <v>5760.327230000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>676.0855900000001</v>
+        <v>6801.81575</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>758.55465</v>
+        <v>3721.27626</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>649.45647</v>
+        <v>4053.7492</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>837.71937</v>
+        <v>5021.631260000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>892.3323799999999</v>
+        <v>5639.77808</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>807.1501999999999</v>
+        <v>7477.11364</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4264.842110000001</v>
+        <v>21281.56395</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3696.31471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>19019.14711</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>16648.227</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>424.1156999999999</v>
+        <v>438.77863</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>484.8104</v>
+        <v>1904.62567</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>917.1220500000001</v>
+        <v>1109.05521</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1528.12741</v>
+        <v>1550.37234</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>176.96598</v>
+        <v>349.61966</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>347.45491</v>
+        <v>550.0073599999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>587.7752800000001</v>
+        <v>777.54157</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>290.31611</v>
+        <v>511.90478</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>167.88351</v>
+        <v>491.72276</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>892.4369600000001</v>
+        <v>1160.03871</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>293.30686</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1548.64098</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3571.897</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>362.91125</v>
+        <v>411.54311</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>231.34347</v>
+        <v>908.29925</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>51.30059</v>
+        <v>980.5703199999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>66.56063</v>
+        <v>940.99301</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>500.95815</v>
+        <v>1279.49355</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>155.26145</v>
+        <v>912.17112</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7.7</v>
+        <v>658.3081500000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>29.92698</v>
+        <v>945.4641899999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>131.64242</v>
+        <v>1029.66455</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>352.31137</v>
+        <v>590.69759</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>351.11161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1065.15752</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5495.722</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>44.71882</v>
+        <v>58.47662</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>8.478579999999999</v>
+        <v>2624.46192</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>50.49871</v>
+        <v>2026.13675</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>43.45883</v>
+        <v>99.15972000000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>38.03411</v>
+        <v>43.62119000000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>17.28519</v>
+        <v>89.12752</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>17.57141</v>
+        <v>417.86764</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>28.31632</v>
+        <v>77.97429000000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>100.01545</v>
+        <v>2141.82111</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>147.32031</v>
+        <v>162.45312</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>321.55443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1255.96747</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>787.336</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>5257.52921</v>
+        <v>27827.41177</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5824.65418</v>
+        <v>30758.75256</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>7393.87383</v>
+        <v>36686.98208000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2444.7622</v>
+        <v>9293.963450000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5025.47646</v>
+        <v>26398.42006</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2988.07585</v>
+        <v>16786.42237</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6194.390539999999</v>
+        <v>35924.74189</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5976.71848</v>
+        <v>31550.17429</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6719.919339999999</v>
+        <v>53137.07786</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>56772.78008999999</v>
+        <v>261417.58925</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>23500.17496</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>124032.04312</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>143526.013</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>28.65425</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>42.47898</v>
+        <v>44.32808</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>10.20894</v>
+        <v>11.55359</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>3.91288</v>
@@ -2057,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>18.03573</v>
+        <v>74.97978000000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>300.02031</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>19.8607</v>
@@ -2072,13 +2118,18 @@
         <v>1.76521</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>11.37522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>290.68916</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>281.386</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>136.46695</v>
@@ -2090,199 +2141,224 @@
         <v>38.97407</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>149.32669</v>
+        <v>156.84904</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>83.24884</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>1.1</v>
+        <v>71.74529</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>7.66691</v>
+        <v>7.682110000000001</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0</v>
+        <v>684.2</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>13.49665</v>
+        <v>780.48215</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>136.74425</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>69.64485000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1576.66393</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>339.101</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3552.29912</v>
+        <v>12819.82843</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3665.53669</v>
+        <v>17380.59952</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3837.16806</v>
+        <v>12361.2732</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2536.82925</v>
+        <v>7103.73134</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2762.10162</v>
+        <v>14452.46694</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1856.74923</v>
+        <v>19603.46696</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3364.97518</v>
+        <v>17382.41599</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4245.41365</v>
+        <v>19961.17077</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2800.7512</v>
+        <v>18412.36132</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>10781.70936</v>
+        <v>32928.74432</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>13301.58636</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>54383.70979</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>63817.43</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>9898.064829999999</v>
+        <v>32885.66025</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>11277.60778</v>
+        <v>45191.50665</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>20743.16954</v>
+        <v>37757.92783000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>7644.39784</v>
+        <v>31688.9618</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>12249.71022</v>
+        <v>24771.29893</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5934.96162</v>
+        <v>26721.89218</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>11432.01957</v>
+        <v>36312.67459</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>13016.86911</v>
+        <v>31660.35558</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>13674.81158</v>
+        <v>46136.52191</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>71120.81503</v>
+        <v>246643.20742</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>32096.07453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>193660.13394</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>197449.519</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>645.18598</v>
+        <v>747.70024</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>591.42099</v>
+        <v>689.50964</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>604.34776</v>
+        <v>760.0584699999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>862.33763</v>
+        <v>985.44226</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>350.63527</v>
+        <v>537.38265</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>280.1337</v>
+        <v>339.98396</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>331.03279</v>
+        <v>639.81958</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>712.76523</v>
+        <v>910.33414</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2665.42644</v>
+        <v>2940.32822</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1606.25364</v>
+        <v>1691.87664</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3231.41078</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3603.23346</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4511.143</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1125.23522</v>
+        <v>1957.26662</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1578.6307</v>
+        <v>2269.71627</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2088.96405</v>
+        <v>4657.473770000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>755.94142</v>
+        <v>8508.736419999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3027.82427</v>
+        <v>3605.26207</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>679.63977</v>
+        <v>2517.12545</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2453.05045</v>
+        <v>3319.68472</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3207.25716</v>
+        <v>3288.16656</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1685.60986</v>
+        <v>6949.85147</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>8566.41159</v>
+        <v>10802.21545</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>5534.556370000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>10735.73744</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>6811.05</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>76.14309</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>29.41155</v>
+        <v>297.69044</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>98.36830999999999</v>
+        <v>311.20241</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>167.25439</v>
@@ -2294,73 +2370,83 @@
         <v>3.66816</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>31.2</v>
+        <v>48.20669</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>11.8082</v>
+        <v>242.8082</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>9.69308</v>
+        <v>410.55531</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>85.14583999999999</v>
+        <v>85.84908</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>60.55635</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>17923.87662</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>88.956</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>5555.59804</v>
+        <v>24387.47959</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>6545.450039999999</v>
+        <v>35806.39547</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5582.638029999999</v>
+        <v>18014.75944</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2554.95197</v>
+        <v>16725.96542</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>7153.99847</v>
+        <v>15805.95875</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4025.02175</v>
+        <v>17962.08408</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6556.6462</v>
+        <v>28573.67165</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5768.80392</v>
+        <v>20016.83678</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>7335.21402</v>
+        <v>30441.51564</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>56277.07065000001</v>
+        <v>227029.7318</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>20161.64235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>150636.53951</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>170837.252</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1.5774</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>7.36124</v>
+        <v>7.76746</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>8.24395</v>
+        <v>11.4354</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>0</v>
@@ -2372,37 +2458,42 @@
         <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0</v>
+        <v>296.23539</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1.30098</v>
+        <v>1.93724</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0.40812</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2.65894</v>
+        <v>33.76714</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>28.36234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>540.18774</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>321.58</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>53.54621</v>
+        <v>241.22379</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>59.96272</v>
+        <v>247.6403</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>561.8471800000001</v>
+        <v>749.52476</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>270.32849</v>
+        <v>481.16886</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>33.02417</v>
@@ -2411,607 +2502,685 @@
         <v>20.83396</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0.00266</v>
+        <v>1.84194</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.00679</v>
+        <v>0.08276</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>4.71643</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>16.22938</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>58.23669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>1562.74727</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>325.892</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2440.77889</v>
+        <v>5474.269520000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2465.37054</v>
+        <v>5872.787069999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>11798.76026</v>
+        <v>13253.47358</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3033.58394</v>
+        <v>4820.39445</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1684.22189</v>
+        <v>4789.665140000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>925.66428</v>
+        <v>5878.196569999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2060.08747</v>
+        <v>3433.21462</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3314.92683</v>
+        <v>7200.189899999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1978.46006</v>
+        <v>5389.14672</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4567.04499</v>
+        <v>6983.53793</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3021.30965</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8657.811900000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14553.646</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>9142.516320000001</v>
+        <v>26317.46589</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>7158.573109999999</v>
+        <v>19426.41664</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>7021.24575</v>
+        <v>36181.95494</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7851.1507</v>
+        <v>13022.78503</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6499.277359999999</v>
+        <v>21568.07834</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6414.099399999999</v>
+        <v>22797.47483</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>7234.955349999999</v>
+        <v>16293.53419</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8510.066800000001</v>
+        <v>20466.81493</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8536.79484</v>
+        <v>27131.42005</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>38722.47053</v>
+        <v>93336.14525</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>37937.7629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>96263.05224999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>119500.893</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>8982.601610000002</v>
+        <v>25390.4142</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>7046.473230000001</v>
+        <v>18427.00212</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6816.18482</v>
+        <v>20558.9147</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>7734.202429999999</v>
+        <v>12380.91316</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>6191.968559999998</v>
+        <v>20942.37034</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>5881.81246</v>
+        <v>21623.53105</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6863.56392</v>
+        <v>15453.11209</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>8301.00603</v>
+        <v>19537.7817</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>8317.552450000001</v>
+        <v>25280.94809</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>37705.68074</v>
+        <v>85812.54489</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>36969.86422</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>91304.94408000002</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>99675.052</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>159.91471</v>
+        <v>927.05169</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>112.09988</v>
+        <v>999.41452</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>205.06093</v>
+        <v>15623.04024</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>116.94827</v>
+        <v>641.8718699999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>307.3088</v>
+        <v>625.708</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>532.28694</v>
+        <v>1173.94378</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>371.39143</v>
+        <v>840.4221</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>209.06077</v>
+        <v>929.03323</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>219.24239</v>
+        <v>1850.47196</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1016.78979</v>
+        <v>7523.600359999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>967.89868</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4958.10817</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>19825.841</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2077.54361</v>
+        <v>-8046.19972</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>9481.0828</v>
+        <v>-4837.30855</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-1458.56451</v>
+        <v>-21633.04196</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-4564.84452</v>
+        <v>-21427.0062</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-8917.86673</v>
+        <v>-7211.30984</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-3135.84441</v>
+        <v>-18943.86468</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-6084.41739</v>
+        <v>-6974.76875</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-10603.04388</v>
+        <v>-8804.828390000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-16274.11022</v>
+        <v>-24782.10563</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>70324.41408</v>
+        <v>94356.3328</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>68191.95998999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>5220.785390000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>22398.042</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7130.23025</v>
+        <v>18400.54693</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>9347.818039999998</v>
+        <v>19236.97238</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7033.79063</v>
+        <v>29275.17442</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>12271.74104</v>
+        <v>19453.23881</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6811.69063</v>
+        <v>19926.14263</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>4964.014440000001</v>
+        <v>16386.5149</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5223.452800000001</v>
+        <v>16122.33335</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>10102.67277</v>
+        <v>21993.05824</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>7853.5289</v>
+        <v>23195.29986</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>23041.96284</v>
+        <v>69592.90298</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>23541.6017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>89583.16441000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>71663.421</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>71.23967</v>
+        <v>466.45921</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>59.36559</v>
+        <v>116.58867</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>76.69112</v>
+        <v>182.42415</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>198.43984</v>
+        <v>363.24069</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>302.89155</v>
+        <v>306.28138</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>64.40038</v>
+        <v>65.04716999999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>13.74173</v>
+        <v>13.7891</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>61.66515</v>
+        <v>148.36642</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>38.57223</v>
+        <v>75.71910000000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>211.83002</v>
+        <v>385.2585</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>88.32119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>217.62517</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>295.952</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7058.99058</v>
+        <v>17934.08772</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>9288.452449999999</v>
+        <v>19120.38371</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6957.09951</v>
+        <v>29092.75027</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>12073.3012</v>
+        <v>19089.99812</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6508.79908</v>
+        <v>19619.86125</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4899.614060000001</v>
+        <v>16321.46773</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5209.71107</v>
+        <v>16108.54425</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>10041.00762</v>
+        <v>21844.69182</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7814.95667</v>
+        <v>23119.58076</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>22830.13282</v>
+        <v>69207.64448</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>23453.28051</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>89365.53924</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>71367.469</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>13285.19898</v>
+        <v>20284.62542</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>13100.15718</v>
+        <v>38606.18883</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>69753.96137</v>
+        <v>123141.2959</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>20469.81456</v>
+        <v>25678.93524</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9524.22748</v>
+        <v>13625.82851</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>21041.36232</v>
+        <v>41075.52073</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13911.30687</v>
+        <v>25209.04919</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>28128.29252</v>
+        <v>53044.26729</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>18167.12763</v>
+        <v>34807.34707</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>46400.35842</v>
+        <v>88428.87971000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>26114.48656</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>55781.56295</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>49794.475</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1267.01976</v>
+        <v>2062.35712</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>723.0964099999999</v>
+        <v>14715.0052</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>929.3081500000001</v>
+        <v>3354.42838</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>814.89774</v>
+        <v>1930.70512</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>998.45947</v>
+        <v>1646.737</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>603.77741</v>
+        <v>1194.68914</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>646.09934</v>
+        <v>1136.24943</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>762.5014399999999</v>
+        <v>1872.86139</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>736.8179</v>
+        <v>3066.40577</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2015.63676</v>
+        <v>3463.61503</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1594.61128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3050.38965</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3919.659</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1229.21463</v>
+        <v>1315.42988</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>702.78638</v>
+        <v>1803.10164</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1293.9543</v>
+        <v>1566.36177</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1463.59121</v>
+        <v>1579.45143</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1405.65362</v>
+        <v>1426.01079</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>632.47435</v>
+        <v>848.01548</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>557.12574</v>
+        <v>3009.62576</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>450.0518500000001</v>
+        <v>838.20279</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>260.47044</v>
+        <v>469.743</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>320.0334099999999</v>
+        <v>1066.61442</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>898.4965500000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4043.50052</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9621.404</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>10788.96459</v>
+        <v>16906.83842</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11674.27439</v>
+        <v>22088.08199</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>67530.69892</v>
+        <v>118220.50575</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>18191.32561</v>
+        <v>22168.77869</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7120.11439</v>
+        <v>10553.08072</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>19805.11056</v>
+        <v>39032.81611</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>12708.08179</v>
+        <v>21063.174</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>26915.73923</v>
+        <v>50333.20311</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>17169.83929</v>
+        <v>31271.1983</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>44064.68825000001</v>
+        <v>83898.65025999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>23621.37873</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>48687.67278</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>36253.412</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-4077.42512</v>
+        <v>-9930.27821</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5728.743659999999</v>
+        <v>-24206.525</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-64178.73525</v>
+        <v>-115499.16344</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-12762.91804</v>
+        <v>-27652.70263</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-11630.40358</v>
+        <v>-910.9957199999988</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-19213.19229</v>
+        <v>-43632.87051000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-14772.27146</v>
+        <v>-16061.48459</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-28628.66363</v>
+        <v>-39856.03744</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-26587.70895</v>
+        <v>-36394.15284</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>46966.0185</v>
+        <v>75520.35607000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>65619.07513</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>39022.38685</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>44266.988</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>7377.56833</v>
+        <v>9183.428960000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7370.891479999999</v>
+        <v>8644.577359999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7342.94812</v>
+        <v>12178.70074</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6513.03619</v>
+        <v>8206.54501</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5728.325809999999</v>
+        <v>11536.923</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6046.10364</v>
+        <v>8771.74776</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7383.61444</v>
+        <v>12224.38571</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>7396.7998</v>
+        <v>13973.86807</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>7690.85408</v>
+        <v>15513.09812</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>27538.56424</v>
+        <v>49325.53328</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>30328.31823</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>51120.19708999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>54218.491</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-11454.99345</v>
+        <v>-19113.70717</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-1642.14782</v>
+        <v>-32851.10236</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-71521.68337</v>
+        <v>-127677.86418</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-19275.95423</v>
+        <v>-35859.24764</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-17358.72939</v>
+        <v>-12447.91872</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-25259.29593</v>
+        <v>-52404.61827000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-22155.8859</v>
+        <v>-28285.8703</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-36025.46343</v>
+        <v>-53829.90551</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-34278.56303</v>
+        <v>-51907.25096</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>19427.45426</v>
+        <v>26194.82279</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>35290.7569</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-12097.81024</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-9951.503000000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>5381</v>
+        <v>5922</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5139</v>
+        <v>5717</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4734</v>
+        <v>5295</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4384</v>
+        <v>4963</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3980</v>
+        <v>4594</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3857</v>
+        <v>4546</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3755</v>
+        <v>4582</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3723</v>
+        <v>4755</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3857</v>
+        <v>4914</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4692</v>
+        <v>6162</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4837</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6786</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>